--- a/vtiger-crm-fw-a12/src/test/resources/testScriptData.xlsx
+++ b/vtiger-crm-fw-a12/src/test/resources/testScriptData.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7500"/>
+    <workbookView windowWidth="20490" windowHeight="6780" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="a12" sheetId="1" r:id="rId1"/>
+    <sheet name="org" sheetId="1" r:id="rId1"/>
+    <sheet name="lead" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>org name</t>
   </si>
@@ -57,6 +58,54 @@
   </si>
   <si>
     <t>yahoo_</t>
+  </si>
+  <si>
+    <t>LAST  NAME</t>
+  </si>
+  <si>
+    <t>COMPANY  NAME</t>
+  </si>
+  <si>
+    <t>sharma</t>
+  </si>
+  <si>
+    <t>tcs</t>
+  </si>
+  <si>
+    <t>verma</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>tiwari</t>
+  </si>
+  <si>
+    <t>hcl</t>
+  </si>
+  <si>
+    <t>yadav</t>
+  </si>
+  <si>
+    <t>wipro</t>
+  </si>
+  <si>
+    <t>rajput</t>
+  </si>
+  <si>
+    <t>ibm</t>
+  </si>
+  <si>
+    <t>vashisth</t>
+  </si>
+  <si>
+    <t>cognizant</t>
+  </si>
+  <si>
+    <t>tomar</t>
+  </si>
+  <si>
+    <t>vmware</t>
   </si>
 </sst>
 </file>
@@ -222,12 +271,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -546,7 +607,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,16 +631,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -588,90 +649,92 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -991,21 +1054,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="14.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
@@ -1056,4 +1120,89 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="24.8571428571429" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>